--- a/data/assieTemp.xlsx
+++ b/data/assieTemp.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="差旅交通明细" sheetId="1" r:id="rId1"/>
-    <sheet name="机场交通明细" sheetId="2" r:id="rId2"/>
-    <sheet name="出差各项合计" sheetId="3" r:id="rId3"/>
-    <sheet name="把明细转成JSON数据" sheetId="4" r:id="rId4"/>
+    <sheet name="报销总明细" sheetId="4" r:id="rId1"/>
+    <sheet name="差旅交通明细" sheetId="1" r:id="rId2"/>
+    <sheet name="机场交通明细" sheetId="2" r:id="rId3"/>
+    <sheet name="出差各项合计" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="71">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,34 +72,6 @@
   </si>
   <si>
     <t>回家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去酒店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火车站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -147,7 +119,187 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://shancarter.github.io/mr-data-converter/</t>
+    <t>4.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三墩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去三墩开会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火车站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去火车站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海虹桥-杭州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州-上海虹桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宿费</t>
+  </si>
+  <si>
+    <t>起始-结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起点-终点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机票款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火车及长途汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出租车/巴士/停车费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话/电报费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订票/手续/邮寄费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机场交通费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差旅费-发票补助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差旅费-无票补助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -157,7 +309,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +350,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -221,7 +399,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,6 +420,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -536,16 +744,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="13.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="10" customFormat="1">
+      <c r="A1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A2" s="11">
+        <v>41841</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="17">
+        <v>155</v>
+      </c>
+      <c r="E2" s="17">
+        <v>916</v>
+      </c>
+      <c r="F2" s="17">
+        <v>278</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="11">
+        <v>41845</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="11">
+        <v>41851</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="17">
+        <v>155</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1832</v>
+      </c>
+      <c r="F4" s="17">
+        <v>300</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17">
+        <v>600</v>
+      </c>
+      <c r="K4" s="17">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="11">
+        <v>41859</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="11">
+        <v>41841</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="17">
+        <v>155</v>
+      </c>
+      <c r="E6" s="17">
+        <v>916</v>
+      </c>
+      <c r="F6" s="17">
+        <v>278</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="11">
+        <v>41845</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="11">
+        <v>41851</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="17">
+        <v>155</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1832</v>
+      </c>
+      <c r="F8" s="17">
+        <v>300</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17">
+        <v>1200</v>
+      </c>
+      <c r="K8" s="17">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="11">
+        <v>41859</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="2"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="9" style="9"/>
     <col min="6" max="6" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -562,16 +1034,16 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" s="4" customFormat="1">
       <c r="A2" s="1">
-        <v>41799</v>
+        <v>41841</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -580,10 +1052,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2">
-        <v>68</v>
+        <v>35</v>
+      </c>
+      <c r="E2" s="9">
+        <v>64</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -591,19 +1063,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>41799</v>
+        <v>41841</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="E3" s="2">
-        <v>16</v>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="9">
+        <v>65</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -611,27 +1083,27 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>41801</v>
+        <v>41842</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="E4" s="2">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>41801</v>
+        <v>41843</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -639,11 +1111,11 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="E5" s="2">
-        <v>21</v>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="9">
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -651,7 +1123,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>41802</v>
+        <v>41843</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -659,10 +1131,10 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="9">
         <v>14</v>
       </c>
       <c r="F6" t="s">
@@ -671,328 +1143,368 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>41802</v>
+        <v>41844</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2">
-        <v>14.6</v>
-      </c>
-      <c r="E7" s="2">
-        <v>66</v>
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="9">
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>41802</v>
+        <v>41844</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2">
-        <v>18.5</v>
-      </c>
-      <c r="E8" s="2">
-        <v>53</v>
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="9">
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>41807</v>
+        <v>41845</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2">
-        <v>16.8</v>
-      </c>
-      <c r="E9" s="2">
-        <v>59</v>
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="9">
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>41807</v>
+        <v>41845</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="E10" s="2">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="9">
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>41808</v>
+        <v>41845</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="E11" s="2">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="9">
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>41809</v>
+        <v>41851</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="E12" s="2">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="9">
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>41811</v>
+        <v>41851</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>16</v>
+        <v>42</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="9">
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>41812</v>
+        <v>41852</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="E14" s="2">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="9">
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>41813</v>
+        <v>41852</v>
       </c>
       <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="9">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="E15" s="2">
-        <v>17</v>
-      </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>41814</v>
+        <v>41855</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="9">
         <v>14</v>
       </c>
-      <c r="D16" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E16" s="2">
-        <v>19</v>
-      </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>41814</v>
+        <v>41856</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="9">
         <v>15</v>
       </c>
-      <c r="D17" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="E17" s="2">
-        <v>18</v>
-      </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>41815</v>
+        <v>41856</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="E18" s="2">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="9">
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>41816</v>
+        <v>41856</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="E19" s="2">
-        <v>15</v>
-      </c>
-      <c r="F19" t="s">
-        <v>16</v>
+        <v>49</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="9">
+        <v>26</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>41817</v>
+        <v>41857</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="E20" s="2">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="9">
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>41817</v>
+        <v>41857</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="2">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="E21" s="2">
-        <v>71</v>
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="9">
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>41817</v>
+        <v>41858</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="2">
-        <v>10.7</v>
-      </c>
-      <c r="E22" s="2">
-        <v>42</v>
+        <v>6</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="9">
+        <v>14</v>
       </c>
       <c r="F22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>41859</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="9">
+        <v>50</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>41859</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="9">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="E23" s="2">
-        <f>SUM(E2:E22)</f>
-        <v>595</v>
+    <row r="25" spans="1:6">
+      <c r="E25" s="9">
+        <f>SUM(E2:E24)</f>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -1002,12 +1514,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1040,9 +1552,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" s="4" customFormat="1">
       <c r="A2" s="1">
-        <v>41799</v>
+        <v>41821</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1051,10 +1563,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2">
-        <v>68</v>
+        <v>26</v>
+      </c>
+      <c r="E2" s="9">
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -1062,128 +1574,148 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>41799</v>
+        <v>41821</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="E3" s="2">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="9">
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>41801</v>
+        <v>41821</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="E4" s="2">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>41801</v>
+        <v>41822</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="E5" s="2">
-        <v>21</v>
+        <v>3.6</v>
+      </c>
+      <c r="E5" s="9">
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>41802</v>
+        <v>41823</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="E6" s="2">
-        <v>14</v>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="9">
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>41802</v>
+        <v>41824</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2">
-        <v>14.6</v>
-      </c>
-      <c r="E7" s="2">
-        <v>66</v>
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="9">
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>41802</v>
+        <v>41824</v>
       </c>
       <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="9">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>41824</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2">
-        <v>18.5</v>
-      </c>
-      <c r="E8" s="2">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="9">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="E9" s="2">
-        <f>SUM(E2:E8)</f>
-        <v>253</v>
+    <row r="10" spans="1:6">
+      <c r="E10">
+        <f>SUM(E2:E9)</f>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1193,12 +1725,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1210,7 +1742,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B1" s="6">
         <v>0</v>
@@ -1223,10 +1755,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1237,11 +1769,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6">
-        <f>SUM(B11,C11,D11,E11)</f>
-        <v>2947</v>
+        <v>2748</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1252,11 +1783,11 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6">
         <f>SUM(B10,C10,D10,E10,F10,G10,H10,I10)</f>
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1267,11 +1798,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
-        <f>PRODUCT(B8,75)</f>
-        <v>1125</v>
+        <v>1050</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1282,11 +1812,11 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B6" s="6">
         <f>SUM(B1:B5)</f>
-        <v>4959</v>
+        <v>4686</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1297,48 +1827,48 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B8" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <f>PRODUCT(B8,40)</f>
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <f>PRODUCT(B8,75)</f>
-        <v>1125</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>73</v>
+        <v>77.5</v>
       </c>
       <c r="C10">
-        <v>73</v>
+        <v>77.5</v>
       </c>
       <c r="D10">
-        <v>73</v>
+        <v>77.5</v>
       </c>
       <c r="E10">
-        <v>73</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>2290</v>
@@ -1352,28 +1882,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="51.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/assieTemp.xlsx
+++ b/data/assieTemp.xlsx
@@ -11,13 +11,14 @@
     <sheet name="差旅交通明细" sheetId="1" r:id="rId2"/>
     <sheet name="机场交通明细" sheetId="2" r:id="rId3"/>
     <sheet name="出差各项合计" sheetId="3" r:id="rId4"/>
+    <sheet name="加班模板" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="77">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,6 +300,30 @@
   </si>
   <si>
     <t>差旅费-无票补助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班事由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃尔玛（浙江）百货有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班报销（沃尔玛（浙江）百货有限公司不提供零散发票，凭日常小票，定期换取大额发票）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -309,7 +334,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +401,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -399,7 +431,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -449,6 +481,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -966,24 +1004,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="D8:D9"/>
@@ -998,6 +1018,24 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1882,4 +1920,250 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="18">
+        <v>41793.300000000003</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="18">
+        <v>41794</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="18">
+        <v>41795</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="18">
+        <v>41796</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="18">
+        <v>41797</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="18">
+        <v>41798</v>
+      </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="18">
+        <v>41799</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="18">
+        <v>41800</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="18">
+        <v>41801</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="18">
+        <v>41802</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="18">
+        <v>41803</v>
+      </c>
+      <c r="B12">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="18">
+        <v>41804</v>
+      </c>
+      <c r="B13">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="18">
+        <v>41805</v>
+      </c>
+      <c r="B14">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="18">
+        <v>41806</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="18">
+        <v>41807</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>